--- a/Template28000-29999.xlsx
+++ b/Template28000-29999.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="1778">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="1784">
   <si>
     <t>UBND Ủy ban nhân dân huyện Phù Ninh 
  tỉnh Phú Thọ</t>
@@ -5520,13 +5520,31 @@
   <si>
     <t>Công an tỉnh Sơn La 
  tỉnh Sơn La</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Đơn Vị</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>DI ĐỘNG</t>
+  </si>
+  <si>
+    <t>CỐ ĐỊNH</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5546,13 +5564,33 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFD9"/>
+        <bgColor rgb="FFE2EFD9"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -5567,7 +5605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5576,6 +5614,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5858,14 +5908,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F2001"/>
+  <dimension ref="A1:F2001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2001"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>1782</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>1783</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>28000</v>
